--- a/data/clean_data/2_phalanges_model.xlsx
+++ b/data/clean_data/2_phalanges_model.xlsx
@@ -1,19 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\OneDrive\Desktop\Tesi\Codice\experimental_plots\data\clean_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65533ABC-6497-4313-AC91-D90E835A36CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="general_data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="foot" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="hand" sheetId="3" r:id="rId6"/>
+    <sheet name="general_data" sheetId="1" r:id="rId1"/>
+    <sheet name="foot" sheetId="2" r:id="rId2"/>
+    <sheet name="hand" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>prototype weight [g]</t>
   </si>
@@ -61,40 +83,66 @@
   </si>
   <si>
     <t>load [%]</t>
+  </si>
+  <si>
+    <t>Motor Torque [Nm]</t>
+  </si>
+  <si>
+    <t>Applied Torque [Nm]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="h.mm"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -103,74 +151,56 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -360,20 +390,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -381,133 +414,136 @@
         <v>194.3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>262.4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4">
+      <c r="B2" s="2">
+        <v>262.39999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D1" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E1" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F1" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="2">
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>150.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2" s="2">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2">
+        <v>150</v>
+      </c>
+      <c r="F2" s="2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
+      <c r="B3" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -521,233 +557,422 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9">
+        <f>(9.81*0.2624)*(0.025+(A4/1000))</f>
+        <v>0.11583648000000002</v>
+      </c>
+      <c r="C4" s="4">
         <v>8.4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="4">
         <v>6.7</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="4">
         <v>7.8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="4">
         <v>7.8</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>10.2</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="H4">
+        <f>C4*1.21362799263351/100</f>
+        <v>0.10194475138121485</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:L10" si="0">D4*1.21362799263351/100</f>
+        <v>8.1313075506445176E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>9.466298342541378E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>9.466298342541378E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>9.5876611418047306E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" ref="B5:B10" si="1">(9.81*0.2624)*(0.025+(A5/1000))</f>
+        <v>0.14157792000000002</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D5" s="4">
         <v>9.6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="4">
         <v>9.6</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="4">
         <v>9.6</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>16.2</v>
+      <c r="H5">
+        <f t="shared" ref="H5:H10" si="2">C5*1.21362799263351/100</f>
+        <v>0.12379005524861801</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.11650828729281697</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.11650828729281697</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.11650828729281697</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0.17112154696132492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>40</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.16731936000000003</v>
       </c>
       <c r="C6" s="2">
         <v>16.2</v>
       </c>
       <c r="D6" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>18.0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="B7" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.1966077348066286</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.1966077348066286</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.18204419889502652</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.21845303867403182</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.1699079189686914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>50</v>
+      </c>
+      <c r="B7" s="9">
+        <f t="shared" si="1"/>
+        <v>0.19306080000000006</v>
+      </c>
+      <c r="C7" s="2">
         <v>20.3</v>
       </c>
-      <c r="C7" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>22.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>19.6</v>
-      </c>
-      <c r="F7" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="D7" s="2">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.24636648250460255</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.23058931860036691</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.26699815837937224</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.23787108655616798</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.24272559852670203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>60</v>
+      </c>
+      <c r="B8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.21880224000000001</v>
+      </c>
+      <c r="C8" s="4">
         <v>28.2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="4">
         <v>23.7</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="4">
         <v>23.1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="4">
         <v>22.5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="4">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>70.0</v>
-      </c>
-      <c r="B9" s="5">
-        <v>31.0</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.34224309392264984</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.2876298342541419</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.28034806629834086</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.27306629834253976</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.27792081031307381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>70</v>
+      </c>
+      <c r="B9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.24454368000000004</v>
+      </c>
+      <c r="C9" s="4">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2">
         <v>25.4</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="4">
         <v>24.7</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="4">
         <v>24.2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="4">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>80.0</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.37622467771638812</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.30826151012891151</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.29976611418047694</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.29369797421730942</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.28034806629834086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>80</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.27028512000000005</v>
+      </c>
+      <c r="C10" s="4">
         <v>35.5</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="4">
         <v>34.9</v>
       </c>
-      <c r="D10" s="2">
-        <v>32.7</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="E10" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="F10" s="5">
         <v>32.6</v>
       </c>
-      <c r="F10" s="5">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="G10" s="4">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.43083793738489612</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.42355616942909502</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.39685635359115784</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.39564272559852426</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.42476979742172849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8">
-        <v>1300.0</v>
+      <c r="B1" s="6">
+        <v>1300</v>
       </c>
       <c r="C1" s="2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="D1" s="2">
-        <v>1700.0</v>
+        <v>1700</v>
       </c>
       <c r="E1" s="2">
-        <v>1900.0</v>
+        <v>1900</v>
       </c>
       <c r="F1" s="2">
-        <v>2100.0</v>
-      </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2">
+        <v>2100</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8">
-        <v>2.2</v>
+      <c r="B2" s="6">
+        <v>2.2000000000000002</v>
       </c>
       <c r="C2" s="2">
         <v>6.1</v>
       </c>
       <c r="D2" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2">
         <v>14.6</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="3">
         <v>19.8</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -762,13 +987,27 @@
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.51839999999999997</v>
+      </c>
+      <c r="B4" s="6">
         <v>6.1</v>
       </c>
       <c r="C4" s="2">
@@ -780,16 +1019,35 @@
       <c r="E4" s="2">
         <v>11.2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="3">
         <v>19.7</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="G4" s="3">
+        <f>B4*1.21362799263351/100</f>
+        <v>7.4031307550644104E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:K8" si="0">C4*1.21362799263351/100</f>
+        <v>8.616758747697921E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>9.5876611418047306E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13592633517495312</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23908471454880145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1.0184</v>
+      </c>
+      <c r="B5" s="6">
         <v>7.4</v>
       </c>
       <c r="C5" s="2">
@@ -802,16 +1060,35 @@
         <v>12.4</v>
       </c>
       <c r="F5" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="B6" s="8">
-        <v>9.0</v>
+        <v>18</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G8" si="1">B5*1.21362799263351/100</f>
+        <v>8.9808471454879746E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10437200736648186</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11529465930018346</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15048987108655526</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21845303867403182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1.5184</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>11.8</v>
@@ -825,78 +1102,135 @@
       <c r="F6" s="2">
         <v>20.3</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B7" s="8">
-        <v>9.3</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10922651933701591</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14320810313075419</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12985819521178557</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19053959484346109</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.24636648250460255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2.0184000000000002</v>
+      </c>
+      <c r="B7" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C7" s="3">
         <v>12.9</v>
       </c>
       <c r="D7" s="2">
         <v>12.4</v>
       </c>
       <c r="E7" s="2">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F7" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="B8" s="11">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="C8" s="9">
-        <v>14.0</v>
+        <v>18</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11286740331491645</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15655801104972281</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15048987108655526</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20510313075506317</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21845303867403182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2.5184000000000002</v>
+      </c>
+      <c r="B8" s="8">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>11.8</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="3">
         <v>16.3</v>
       </c>
       <c r="F8" s="2">
         <v>20.8</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13349907918968612</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1699079189686914</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14320810313075419</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19782136279926213</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2524346224677701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>